--- a/breakfast.xlsx
+++ b/breakfast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>search</t>
   </si>
@@ -245,6 +245,75 @@
   </si>
   <si>
     <t>1.32 Pound (Pack of 1)</t>
+  </si>
+  <si>
+    <t>cereals</t>
+  </si>
+  <si>
+    <t>Magic Spoon Cereal, Variety 8-Pack Single Serve Cups - Keto, Gluten &amp; Grain Free, Low Carb, High Protein, Zero Sugar, Non-GMO Breakfast Cereal</t>
+  </si>
+  <si>
+    <t>24 Count (Pack of 1)</t>
+  </si>
+  <si>
+    <t>domestic eggs</t>
+  </si>
+  <si>
+    <t>Ray-Ban Stories | Wayfarer Smart Glasses</t>
+  </si>
+  <si>
+    <t>2 Count (Pack of 1)</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>Gold Medal All-Purpose Flour (12 lb.) (pack of 2)</t>
+  </si>
+  <si>
+    <t>12 Pound (Pack of 2)</t>
+  </si>
+  <si>
+    <t>flower (seeds)</t>
+  </si>
+  <si>
+    <t>Wildflower Seeds - Premium Birds &amp; Butterflies Seed Collection [3 Oz] 130,000+ Flower Garden Seeds - Wild Flowers Bulk Seeds: 23 Varieties of 100% Non-GMO Annual Flower Seeds for Planting</t>
+  </si>
+  <si>
+    <t>margarine</t>
+  </si>
+  <si>
+    <t>Parkay Margarine Squeeze Bottle - 12 Ounce - Pack of 2</t>
+  </si>
+  <si>
+    <t>12 Ounce (Pack of 2)</t>
+  </si>
+  <si>
+    <t>pastry</t>
+  </si>
+  <si>
+    <t>Danish Dough Whisk,13 Inch Stainless Dutch Bread Whisk, Kitchen Bread Mixer Whisk Scraper For Cooking Bread, Pastry, Dumpling And Pizza Dough Making</t>
+  </si>
+  <si>
+    <t>26.4 Ounce (Pack of 1)</t>
+  </si>
+  <si>
+    <t>rolls/buns</t>
+  </si>
+  <si>
+    <t>Schar Gluten Free Hamburger Buns 10.6oz 3 Pack - 12 Rolls</t>
+  </si>
+  <si>
+    <t>10.6 Ounce (Pack of 3)</t>
+  </si>
+  <si>
+    <t>waffles</t>
+  </si>
+  <si>
+    <t>Honey Stinger Organic Waffle, Honey, Sports Nutrition, 16.96 Ounce, Pack of 16</t>
+  </si>
+  <si>
+    <t>1.06 Ounce (Pack of 16)</t>
   </si>
 </sst>
 </file>
@@ -252,11 +321,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,12 +337,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -282,7 +406,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,52 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -350,60 +473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -426,181 +495,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,23 +686,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,9 +709,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,7 +722,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,110 +780,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,49 +884,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="B2:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1623,6 +1692,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2">
+        <v>26.99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2">
+        <v>299</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>21.52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9.85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25.99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>27.35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/breakfast.xlsx
+++ b/breakfast.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>search</t>
   </si>
@@ -46,6 +46,9 @@
     <t>1 Pound (Pack of 2)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/A180irm0dgL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>semi-finished bread</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>1.5 Pound (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61iyxYCh5LL._SL1000_.jpg</t>
+  </si>
+  <si>
     <t>white bread</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>14.1 Ounce (Pack of 6)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71+szeeeSsL._SL1000_.jpg</t>
+  </si>
+  <si>
     <t>butter</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>8 Ounce (Pack of 20)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61OiUgttRWL._SL1238_.jpg</t>
+  </si>
+  <si>
     <t>ham</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>3 Pound (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61FopQ8jqAL._SL1000_.jpg</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t>8.12 Fl Oz (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/51jPL9mECyL.jpg</t>
+  </si>
+  <si>
     <t>curd cheese</t>
   </si>
   <si>
@@ -115,6 +133,9 @@
     <t>10 Count (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/41FwTLb5BqL.jpg</t>
+  </si>
+  <si>
     <t>cream cheese</t>
   </si>
   <si>
@@ -124,6 +145,9 @@
     <t>0.75 Ounce (Pack of 100)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/41iuwQ6eosL.jpg</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
@@ -136,6 +160,9 @@
     <t>4 Count (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/81+5D9h5cZL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>yogurt</t>
   </si>
   <si>
@@ -145,6 +172,9 @@
     <t>3 Ounce (Pack of 20)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/81VmMBbk48L._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>hard cheese</t>
   </si>
   <si>
@@ -154,6 +184,9 @@
     <t>7 Ounce (Pack of 6)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71lfn-ab7IL._SL1200_.jpg</t>
+  </si>
+  <si>
     <t>processed cheese</t>
   </si>
   <si>
@@ -166,6 +199,9 @@
     <t>8.81 Ounce (Pack of 1)</t>
   </si>
   <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51XLbkPb8jL._SY291_BO1,204,203,200_QL40_FMwebp_.jpg</t>
+  </si>
+  <si>
     <t>specialty cheese</t>
   </si>
   <si>
@@ -175,6 +211,9 @@
     <t>7 Ounce (Pack of 7)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71YUPJRuTaL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>spread cheese</t>
   </si>
   <si>
@@ -184,6 +223,9 @@
     <t>5 Ounce (Pack of 4)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/718P3YtaVwS._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>jam</t>
   </si>
   <si>
@@ -196,6 +238,9 @@
     <t>12 Ounce (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/81+V4eVcVFL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>sliced cheese</t>
   </si>
   <si>
@@ -208,6 +253,9 @@
     <t>12 Ounce (Pack of 4)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/913Nkr0eZDL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>soft cheese</t>
   </si>
   <si>
@@ -217,6 +265,9 @@
     <t>8 Ounce (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/81Rm-av5R4L._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>honey</t>
   </si>
   <si>
@@ -229,6 +280,9 @@
     <t>Wildflower</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71-pUNrWpgL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>ready soups</t>
   </si>
   <si>
@@ -238,13 +292,7 @@
     <t>32 Fl Oz (Pack of 1)</t>
   </si>
   <si>
-    <t>whipped/sour cream</t>
-  </si>
-  <si>
-    <t>Whipped Cream Dispenser Stainless Steel - Professional Whipped Cream Maker - Gourmet Cream Whipper - Large 500ml / 1 Pint Capacity Canister - Includes 3 Culinary Decorating Nozzles</t>
-  </si>
-  <si>
-    <t>1.32 Pound (Pack of 1)</t>
+    <t>https://m.media-amazon.com/images/I/71MqR5qvBpL._SL1500_.jpg</t>
   </si>
   <si>
     <t>cereals</t>
@@ -256,28 +304,7 @@
     <t>24 Count (Pack of 1)</t>
   </si>
   <si>
-    <t>domestic eggs</t>
-  </si>
-  <si>
-    <t>Ray-Ban Stories | Wayfarer Smart Glasses</t>
-  </si>
-  <si>
-    <t>2 Count (Pack of 1)</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>Gold Medal All-Purpose Flour (12 lb.) (pack of 2)</t>
-  </si>
-  <si>
-    <t>12 Pound (Pack of 2)</t>
-  </si>
-  <si>
-    <t>flower (seeds)</t>
-  </si>
-  <si>
-    <t>Wildflower Seeds - Premium Birds &amp; Butterflies Seed Collection [3 Oz] 130,000+ Flower Garden Seeds - Wild Flowers Bulk Seeds: 23 Varieties of 100% Non-GMO Annual Flower Seeds for Planting</t>
+    <t>https://m.media-amazon.com/images/I/815n3l8sUqL._SL1500_.jpg</t>
   </si>
   <si>
     <t>margarine</t>
@@ -289,13 +316,7 @@
     <t>12 Ounce (Pack of 2)</t>
   </si>
   <si>
-    <t>pastry</t>
-  </si>
-  <si>
-    <t>Danish Dough Whisk,13 Inch Stainless Dutch Bread Whisk, Kitchen Bread Mixer Whisk Scraper For Cooking Bread, Pastry, Dumpling And Pizza Dough Making</t>
-  </si>
-  <si>
-    <t>26.4 Ounce (Pack of 1)</t>
+    <t>https://m.media-amazon.com/images/I/61TqJbp9goL._SL1002_.jpg</t>
   </si>
   <si>
     <t>rolls/buns</t>
@@ -307,6 +328,9 @@
     <t>10.6 Ounce (Pack of 3)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71ud0rM4YtL._SL1388_.jpg</t>
+  </si>
+  <si>
     <t>waffles</t>
   </si>
   <si>
@@ -314,6 +338,9 @@
   </si>
   <si>
     <t>1.06 Ounce (Pack of 16)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61TvdNAwviL._SL1200_.jpg</t>
   </si>
 </sst>
 </file>
@@ -321,11 +348,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -336,6 +363,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -343,8 +385,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,13 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -389,6 +454,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -397,6 +470,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,75 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,19 +516,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,163 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,65 +707,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,6 +734,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,157 +787,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +966,9 @@
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1259,13 +1289,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.4464285714286" customWidth="1"/>
     <col min="3" max="3" width="77.9732142857143" customWidth="1"/>
@@ -1292,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1311,193 +1341,223 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>6.99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>27.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>99.99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>26.93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>15.22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>74.99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>9.73</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <v>26.47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -1506,353 +1566,317 @@
         <v>99.98</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2">
         <v>16.3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2">
         <v>89.99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
         <v>29.99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2">
         <v>39.95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2">
         <v>13.24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>104.98</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2">
         <v>15.99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2">
         <v>37.63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
-        <v>59.99</v>
+        <v>26.99</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2">
-        <v>26.99</v>
+        <v>14.99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
-        <v>299</v>
+        <v>25.99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>21.52</v>
+        <v>27.35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="2">
-        <v>14.99</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="2">
-        <v>9.85</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2">
-        <v>25.99</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>27.35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://m.media-amazon.com/images/I/A180irm0dgL._SL1500_.jpg"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://m.media-amazon.com/images/I/61iyxYCh5LL._SL1000_.jpg"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://m.media-amazon.com/images/I/71+szeeeSsL._SL1000_.jpg"/>
+    <hyperlink ref="H5" r:id="rId4" display="https://m.media-amazon.com/images/I/61OiUgttRWL._SL1238_.jpg"/>
+    <hyperlink ref="H6" r:id="rId5" display="https://m.media-amazon.com/images/I/61FopQ8jqAL._SL1000_.jpg"/>
+    <hyperlink ref="H7" r:id="rId6" display="https://m.media-amazon.com/images/I/51jPL9mECyL.jpg"/>
+    <hyperlink ref="H8" r:id="rId7" display="https://m.media-amazon.com/images/I/41FwTLb5BqL.jpg"/>
+    <hyperlink ref="H9" r:id="rId8" display="https://m.media-amazon.com/images/I/41iuwQ6eosL.jpg"/>
+    <hyperlink ref="H10" r:id="rId9" display="https://m.media-amazon.com/images/I/81+5D9h5cZL._SL1500_.jpg"/>
+    <hyperlink ref="H11" r:id="rId10" display="https://m.media-amazon.com/images/I/81VmMBbk48L._SL1500_.jpg"/>
+    <hyperlink ref="H12" r:id="rId11" display="https://m.media-amazon.com/images/I/71lfn-ab7IL._SL1200_.jpg"/>
+    <hyperlink ref="H13" r:id="rId12" display="https://images-na.ssl-images-amazon.com/images/I/51XLbkPb8jL._SY291_BO1,204,203,200_QL40_FMwebp_.jpg"/>
+    <hyperlink ref="H14" r:id="rId13" display="https://m.media-amazon.com/images/I/71YUPJRuTaL._SL1500_.jpg"/>
+    <hyperlink ref="H15" r:id="rId14" display="https://m.media-amazon.com/images/I/718P3YtaVwS._SL1500_.jpg"/>
+    <hyperlink ref="H16" r:id="rId15" display="https://m.media-amazon.com/images/I/81+V4eVcVFL._SL1500_.jpg"/>
+    <hyperlink ref="H17" r:id="rId16" display="https://m.media-amazon.com/images/I/913Nkr0eZDL._SL1500_.jpg"/>
+    <hyperlink ref="H18" r:id="rId17" display="https://m.media-amazon.com/images/I/81Rm-av5R4L._SL1500_.jpg"/>
+    <hyperlink ref="H19" r:id="rId18" display="https://m.media-amazon.com/images/I/71-pUNrWpgL._SL1500_.jpg"/>
+    <hyperlink ref="H20" r:id="rId19" display="https://m.media-amazon.com/images/I/71MqR5qvBpL._SL1500_.jpg"/>
+    <hyperlink ref="H21" r:id="rId20" display="https://m.media-amazon.com/images/I/815n3l8sUqL._SL1500_.jpg"/>
+    <hyperlink ref="H22" r:id="rId21" display="https://m.media-amazon.com/images/I/61TqJbp9goL._SL1002_.jpg"/>
+    <hyperlink ref="H23" r:id="rId22" display="https://m.media-amazon.com/images/I/71ud0rM4YtL._SL1388_.jpg"/>
+    <hyperlink ref="H24" r:id="rId23" display="https://m.media-amazon.com/images/I/61TvdNAwviL._SL1200_.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
